--- a/[2] Analyzer Results/RESULTS_MTT_MERGED_EXP.xlsx
+++ b/[2] Analyzer Results/RESULTS_MTT_MERGED_EXP.xlsx
@@ -512,31 +512,31 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12.02222222222222</v>
+        <v>2.022222222222222</v>
       </c>
       <c r="E2" t="n">
-        <v>29.97222222222222</v>
+        <v>29.69074074074074</v>
       </c>
       <c r="F2" t="n">
-        <v>17.95</v>
+        <v>27.66851851851852</v>
       </c>
       <c r="G2" t="n">
-        <v>50.15000000000001</v>
+        <v>21.84351851851852</v>
       </c>
       <c r="H2" t="n">
-        <v>50.56438888888889</v>
+        <v>21.5426319704166</v>
       </c>
       <c r="I2" t="n">
-        <v>45.34330555555555</v>
+        <v>20.11175819870629</v>
       </c>
       <c r="J2" t="n">
-        <v>19.5305</v>
+        <v>6.727740740740741</v>
       </c>
       <c r="K2" t="n">
-        <v>153.9534722222222</v>
+        <v>21.00411111111111</v>
       </c>
       <c r="L2" t="n">
-        <v>5027.915722222222</v>
+        <v>771.9230185185185</v>
       </c>
     </row>
     <row r="3">
@@ -556,31 +556,31 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>11.3037037037037</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>30.33888888888889</v>
+        <v>29.86111111111111</v>
       </c>
       <c r="F3" t="n">
-        <v>19.03518518518518</v>
+        <v>27.86111111111111</v>
       </c>
       <c r="G3" t="n">
-        <v>81.98425925925926</v>
+        <v>34.53055555555555</v>
       </c>
       <c r="H3" t="n">
-        <v>82.04214814814814</v>
+        <v>33.50039027804448</v>
       </c>
       <c r="I3" t="n">
-        <v>73.44992592592592</v>
+        <v>30.65509238155816</v>
       </c>
       <c r="J3" t="n">
-        <v>32.85005555555556</v>
+        <v>11.15451851851852</v>
       </c>
       <c r="K3" t="n">
-        <v>156.9860740740741</v>
+        <v>22.82847222222222</v>
       </c>
       <c r="L3" t="n">
-        <v>9333.02887037037</v>
+        <v>1333.257527777778</v>
       </c>
     </row>
     <row r="4">
@@ -600,31 +600,31 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>11.68333333333333</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="E4" t="n">
-        <v>31.48703703703704</v>
+        <v>31.05925925925926</v>
       </c>
       <c r="F4" t="n">
-        <v>19.8037037037037</v>
+        <v>28.97592592592592</v>
       </c>
       <c r="G4" t="n">
-        <v>66.84907407407407</v>
+        <v>28.63518518518519</v>
       </c>
       <c r="H4" t="n">
-        <v>67.10026851851852</v>
+        <v>28.01775799709868</v>
       </c>
       <c r="I4" t="n">
-        <v>60.08478703703703</v>
+        <v>26.43908548745019</v>
       </c>
       <c r="J4" t="n">
-        <v>27.93414814814815</v>
+        <v>8.949518518518518</v>
       </c>
       <c r="K4" t="n">
-        <v>204.5682685185185</v>
+        <v>21.58330555555555</v>
       </c>
       <c r="L4" t="n">
-        <v>8798.300546296297</v>
+        <v>997.787962962963</v>
       </c>
     </row>
     <row r="5">
@@ -644,31 +644,31 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>11.27777777777778</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>30.65555555555555</v>
+        <v>30.32777777777778</v>
       </c>
       <c r="F5" t="n">
-        <v>19.37777777777778</v>
+        <v>28.32777777777778</v>
       </c>
       <c r="G5" t="n">
-        <v>67.20555555555556</v>
+        <v>28.21111111111111</v>
       </c>
       <c r="H5" t="n">
-        <v>67.55897222222222</v>
+        <v>27.56961605411228</v>
       </c>
       <c r="I5" t="n">
-        <v>59.03819444444444</v>
+        <v>26.21835560740693</v>
       </c>
       <c r="J5" t="n">
-        <v>27.45466666666666</v>
+        <v>9.138888888888889</v>
       </c>
       <c r="K5" t="n">
-        <v>162.8410555555556</v>
+        <v>25.96858333333333</v>
       </c>
       <c r="L5" t="n">
-        <v>7508.073027777778</v>
+        <v>1027.413</v>
       </c>
     </row>
     <row r="6">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9.459259259259261</v>
+        <v>2.027777777777778</v>
       </c>
       <c r="E6" t="n">
-        <v>30.17777777777778</v>
+        <v>27.12407407407407</v>
       </c>
       <c r="F6" t="n">
-        <v>20.71851851851852</v>
+        <v>25.0962962962963</v>
       </c>
       <c r="G6" t="n">
-        <v>114.0638888888889</v>
+        <v>48.13888888888889</v>
       </c>
       <c r="H6" t="n">
-        <v>114.2151944444444</v>
+        <v>47.5979897422625</v>
       </c>
       <c r="I6" t="n">
-        <v>100.4224537037037</v>
+        <v>46.00985087761003</v>
       </c>
       <c r="J6" t="n">
-        <v>48.37812962962963</v>
+        <v>15.48560185185185</v>
       </c>
       <c r="K6" t="n">
-        <v>176.8305740740741</v>
+        <v>28.99761111111111</v>
       </c>
       <c r="L6" t="n">
-        <v>14621.79834259259</v>
+        <v>1893.350407407407</v>
       </c>
     </row>
     <row r="7">
@@ -732,31 +732,31 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10.32407407407407</v>
+        <v>2.111111111111111</v>
       </c>
       <c r="E7" t="n">
-        <v>31.63518518518518</v>
+        <v>29.7962962962963</v>
       </c>
       <c r="F7" t="n">
-        <v>21.31111111111111</v>
+        <v>27.68518518518518</v>
       </c>
       <c r="G7" t="n">
-        <v>99.12037037037038</v>
+        <v>39.93148148148148</v>
       </c>
       <c r="H7" t="n">
-        <v>99.34892592592593</v>
+        <v>39.28297033724029</v>
       </c>
       <c r="I7" t="n">
-        <v>88.98518518518519</v>
+        <v>37.31769293505262</v>
       </c>
       <c r="J7" t="n">
-        <v>40.64285185185185</v>
+        <v>13.17141666666667</v>
       </c>
       <c r="K7" t="n">
-        <v>145.1042222222222</v>
+        <v>27.34026851851852</v>
       </c>
       <c r="L7" t="n">
-        <v>10822.44786111111</v>
+        <v>1449.643944444445</v>
       </c>
     </row>
     <row r="8">
@@ -776,31 +776,31 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>11.07222222222222</v>
+        <v>2.275925925925926</v>
       </c>
       <c r="E8" t="n">
-        <v>30.01111111111111</v>
+        <v>26.14074074074074</v>
       </c>
       <c r="F8" t="n">
-        <v>18.93888888888889</v>
+        <v>23.86481481481481</v>
       </c>
       <c r="G8" t="n">
-        <v>123.8351851851852</v>
+        <v>56.37777777777777</v>
       </c>
       <c r="H8" t="n">
-        <v>123.5877037037037</v>
+        <v>54.93006032437879</v>
       </c>
       <c r="I8" t="n">
-        <v>113.6677407407407</v>
+        <v>52.36060139935103</v>
       </c>
       <c r="J8" t="n">
-        <v>50.61343518518518</v>
+        <v>18.18872222222222</v>
       </c>
       <c r="K8" t="n">
-        <v>150.8492407407408</v>
+        <v>36.50593518518519</v>
       </c>
       <c r="L8" t="n">
-        <v>13712.78072222222</v>
+        <v>2594.926185185185</v>
       </c>
     </row>
     <row r="9">
@@ -820,31 +820,31 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>9.966666666666667</v>
+        <v>2.022222222222222</v>
       </c>
       <c r="E9" t="n">
-        <v>32.13888888888889</v>
+        <v>21.98518518518519</v>
       </c>
       <c r="F9" t="n">
-        <v>22.17222222222222</v>
+        <v>19.96296296296296</v>
       </c>
       <c r="G9" t="n">
-        <v>251.6518518518519</v>
+        <v>117.4777777777778</v>
       </c>
       <c r="H9" t="n">
-        <v>250.5898148148148</v>
+        <v>112.8086049959966</v>
       </c>
       <c r="I9" t="n">
-        <v>231.0211111111111</v>
+        <v>105.427465034617</v>
       </c>
       <c r="J9" t="n">
-        <v>102.1112037037037</v>
+        <v>38.60941666666667</v>
       </c>
       <c r="K9" t="n">
-        <v>164.5025370370371</v>
+        <v>36.4687037037037</v>
       </c>
       <c r="L9" t="n">
-        <v>27733.00499074074</v>
+        <v>4943.562268518519</v>
       </c>
     </row>
     <row r="10">
@@ -864,31 +864,31 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10.87592592592592</v>
+        <v>2.133333333333333</v>
       </c>
       <c r="E10" t="n">
-        <v>30.42037037037037</v>
+        <v>27.48518518518519</v>
       </c>
       <c r="F10" t="n">
-        <v>19.54444444444444</v>
+        <v>25.35185185185185</v>
       </c>
       <c r="G10" t="n">
-        <v>139.937962962963</v>
+        <v>61.98981481481481</v>
       </c>
       <c r="H10" t="n">
-        <v>139.7641111111111</v>
+        <v>60.10937438262843</v>
       </c>
       <c r="I10" t="n">
-        <v>127.7126666666667</v>
+        <v>56.27842004160235</v>
       </c>
       <c r="J10" t="n">
-        <v>52.51946296296297</v>
+        <v>19.92136111111111</v>
       </c>
       <c r="K10" t="n">
-        <v>97.69907407407408</v>
+        <v>64157.13657407407</v>
       </c>
       <c r="L10" t="n">
-        <v>11767.41068518518</v>
+        <v>2778.354981481481</v>
       </c>
     </row>
     <row r="11">
@@ -908,31 +908,31 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>10.13888888888889</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>32.21481481481482</v>
+        <v>22.2</v>
       </c>
       <c r="F11" t="n">
-        <v>22.07592592592593</v>
+        <v>20.2</v>
       </c>
       <c r="G11" t="n">
-        <v>143.3435185185185</v>
+        <v>64.64351851851852</v>
       </c>
       <c r="H11" t="n">
-        <v>141.8036759259259</v>
+        <v>61.97004527825498</v>
       </c>
       <c r="I11" t="n">
-        <v>125.5410925925926</v>
+        <v>56.75381649175975</v>
       </c>
       <c r="J11" t="n">
-        <v>59.18602777777778</v>
+        <v>21.78942592592593</v>
       </c>
       <c r="K11" t="n">
-        <v>137.7861018518519</v>
+        <v>43.94193518518519</v>
       </c>
       <c r="L11" t="n">
-        <v>14239.41121296296</v>
+        <v>3027.724981481481</v>
       </c>
     </row>
     <row r="12">
@@ -952,31 +952,31 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10.05555555555556</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>31.76111111111111</v>
+        <v>22.45555555555556</v>
       </c>
       <c r="F12" t="n">
-        <v>21.70555555555556</v>
+        <v>20.45555555555556</v>
       </c>
       <c r="G12" t="n">
-        <v>216.7611111111111</v>
+        <v>98.49444444444445</v>
       </c>
       <c r="H12" t="n">
-        <v>215.9999722222222</v>
+        <v>95.90594235500727</v>
       </c>
       <c r="I12" t="n">
-        <v>189.55775</v>
+        <v>88.05771688710379</v>
       </c>
       <c r="J12" t="n">
-        <v>77.4393888888889</v>
+        <v>32.59319444444444</v>
       </c>
       <c r="K12" t="n">
-        <v>69.07636111111111</v>
+        <v>37.39483333333333</v>
       </c>
       <c r="L12" t="n">
-        <v>15780.26272222222</v>
+        <v>4507.069527777778</v>
       </c>
     </row>
     <row r="13">
@@ -996,31 +996,31 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>10.04444444444444</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>30.16111111111111</v>
+        <v>21.00555555555556</v>
       </c>
       <c r="F13" t="n">
-        <v>20.11666666666667</v>
+        <v>19.00555555555556</v>
       </c>
       <c r="G13" t="n">
-        <v>184.6898148148148</v>
+        <v>81.02222222222223</v>
       </c>
       <c r="H13" t="n">
-        <v>184.6941481481481</v>
+        <v>77.63670871132952</v>
       </c>
       <c r="I13" t="n">
-        <v>164.7086481481482</v>
+        <v>70.64263696790499</v>
       </c>
       <c r="J13" t="n">
-        <v>76.14412962962963</v>
+        <v>27.37212037037037</v>
       </c>
       <c r="K13" t="n">
-        <v>161.3433888888889</v>
+        <v>33.57533333333333</v>
       </c>
       <c r="L13" t="n">
-        <v>20323.01669444445</v>
+        <v>3333.173175925926</v>
       </c>
     </row>
     <row r="14">
@@ -1040,31 +1040,31 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10.36666666666667</v>
+        <v>2.027777777777778</v>
       </c>
       <c r="E14" t="n">
-        <v>30.74814814814815</v>
+        <v>24.94814814814815</v>
       </c>
       <c r="F14" t="n">
-        <v>20.38148148148148</v>
+        <v>22.92037037037037</v>
       </c>
       <c r="G14" t="n">
-        <v>105.9212962962963</v>
+        <v>45.74907407407407</v>
       </c>
       <c r="H14" t="n">
-        <v>106.0883518518519</v>
+        <v>44.64784828322626</v>
       </c>
       <c r="I14" t="n">
-        <v>97.25192592592593</v>
+        <v>41.78970869174149</v>
       </c>
       <c r="J14" t="n">
-        <v>40.78643518518518</v>
+        <v>15.26197222222222</v>
       </c>
       <c r="K14" t="n">
-        <v>116.863537037037</v>
+        <v>32.95961111111112</v>
       </c>
       <c r="L14" t="n">
-        <v>9238.739981481482</v>
+        <v>1888.386231481482</v>
       </c>
     </row>
     <row r="15">
@@ -1084,31 +1084,31 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11.23148148148148</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>26.13703703703704</v>
+        <v>19.0537037037037</v>
       </c>
       <c r="F15" t="n">
-        <v>14.90555555555556</v>
+        <v>17.0537037037037</v>
       </c>
       <c r="G15" t="n">
-        <v>99.17129629629629</v>
+        <v>55.625</v>
       </c>
       <c r="H15" t="n">
-        <v>99.44838888888889</v>
+        <v>53.32987548776947</v>
       </c>
       <c r="I15" t="n">
-        <v>90.20940740740741</v>
+        <v>51.00262275752265</v>
       </c>
       <c r="J15" t="n">
-        <v>36.2442037037037</v>
+        <v>17.01668518518519</v>
       </c>
       <c r="K15" t="n">
-        <v>117.0621759259259</v>
+        <v>35.06565740740741</v>
       </c>
       <c r="L15" t="n">
-        <v>8837.139092592592</v>
+        <v>2454.770944444444</v>
       </c>
     </row>
     <row r="16">
@@ -1128,31 +1128,31 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>10</v>
+        <v>2.027777777777778</v>
       </c>
       <c r="E16" t="n">
-        <v>28.92592592592592</v>
+        <v>26.84074074074074</v>
       </c>
       <c r="F16" t="n">
-        <v>18.92592592592593</v>
+        <v>24.81296296296296</v>
       </c>
       <c r="G16" t="n">
-        <v>151.0166666666667</v>
+        <v>79.49629629629629</v>
       </c>
       <c r="H16" t="n">
-        <v>151.2216944444444</v>
+        <v>77.61655255423028</v>
       </c>
       <c r="I16" t="n">
-        <v>139.4710925925926</v>
+        <v>72.53519741127919</v>
       </c>
       <c r="J16" t="n">
-        <v>46.34986111111111</v>
+        <v>24.88322222222222</v>
       </c>
       <c r="K16" t="n">
-        <v>60.95931481481481</v>
+        <v>-21108.04738888889</v>
       </c>
       <c r="L16" t="n">
-        <v>9303.403685185185</v>
+        <v>2667.139759259259</v>
       </c>
     </row>
     <row r="17">
@@ -1172,31 +1172,31 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>11.41666666666667</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>30.14444444444445</v>
+        <v>29.85</v>
       </c>
       <c r="F17" t="n">
-        <v>18.72777777777778</v>
+        <v>27.85</v>
       </c>
       <c r="G17" t="n">
-        <v>72.50555555555555</v>
+        <v>30.39444444444445</v>
       </c>
       <c r="H17" t="n">
-        <v>72.76869444444444</v>
+        <v>30.06444122525313</v>
       </c>
       <c r="I17" t="n">
-        <v>66.23947222222222</v>
+        <v>29.01578443375113</v>
       </c>
       <c r="J17" t="n">
-        <v>28.09772222222222</v>
+        <v>9.393805555555556</v>
       </c>
       <c r="K17" t="n">
-        <v>153.5498055555555</v>
+        <v>23.37641666666667</v>
       </c>
       <c r="L17" t="n">
-        <v>7226.979</v>
+        <v>1024.541472222222</v>
       </c>
     </row>
     <row r="18">
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>9.661111111111111</v>
+        <v>2.044444444444444</v>
       </c>
       <c r="E18" t="n">
-        <v>32.02222222222222</v>
+        <v>24.17777777777778</v>
       </c>
       <c r="F18" t="n">
-        <v>22.36111111111111</v>
+        <v>22.13333333333333</v>
       </c>
       <c r="G18" t="n">
-        <v>122.9666666666667</v>
+        <v>51.55555555555556</v>
       </c>
       <c r="H18" t="n">
-        <v>122.2441666666667</v>
+        <v>50.68144406497754</v>
       </c>
       <c r="I18" t="n">
-        <v>111.3176666666667</v>
+        <v>48.73495420039715</v>
       </c>
       <c r="J18" t="n">
-        <v>52.30216666666666</v>
+        <v>17.47152777777778</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6688333333333</v>
+        <v>35.34172222222222</v>
       </c>
       <c r="L18" t="n">
-        <v>14414.89663888889</v>
+        <v>2360.077527777778</v>
       </c>
     </row>
     <row r="19">
@@ -1260,31 +1260,31 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>10.16851851851852</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>30.30555555555556</v>
+        <v>30.56666666666667</v>
       </c>
       <c r="F19" t="n">
-        <v>20.13703703703704</v>
+        <v>28.56666666666667</v>
       </c>
       <c r="G19" t="n">
-        <v>119.6296296296296</v>
+        <v>47.96851851851852</v>
       </c>
       <c r="H19" t="n">
-        <v>119.4466851851852</v>
+        <v>47.38208402161472</v>
       </c>
       <c r="I19" t="n">
-        <v>109.3258981481482</v>
+        <v>46.53815235874961</v>
       </c>
       <c r="J19" t="n">
-        <v>46.04016666666666</v>
+        <v>15.35978703703704</v>
       </c>
       <c r="K19" t="n">
-        <v>121.2216944444444</v>
+        <v>24.78565740740741</v>
       </c>
       <c r="L19" t="n">
-        <v>10485.57519444444</v>
+        <v>1513.367222222222</v>
       </c>
     </row>
   </sheetData>

--- a/[2] Analyzer Results/RESULTS_MTT_MERGED_EXP.xlsx
+++ b/[2] Analyzer Results/RESULTS_MTT_MERGED_EXP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,40 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>AUC</t>
         </is>
@@ -512,30 +502,24 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.022222222222222</v>
+        <v>29.69074074074074</v>
       </c>
       <c r="E2" t="n">
-        <v>29.69074074074074</v>
+        <v>21.84351851851852</v>
       </c>
       <c r="F2" t="n">
-        <v>27.66851851851852</v>
+        <v>21.5426319704166</v>
       </c>
       <c r="G2" t="n">
-        <v>21.84351851851852</v>
+        <v>20.11175819870629</v>
       </c>
       <c r="H2" t="n">
-        <v>21.5426319704166</v>
+        <v>6.727740740740741</v>
       </c>
       <c r="I2" t="n">
-        <v>20.11175819870629</v>
+        <v>21.00411111111111</v>
       </c>
       <c r="J2" t="n">
-        <v>6.727740740740741</v>
-      </c>
-      <c r="K2" t="n">
-        <v>21.00411111111111</v>
-      </c>
-      <c r="L2" t="n">
         <v>771.9230185185185</v>
       </c>
     </row>
@@ -556,30 +540,24 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>29.86111111111111</v>
       </c>
       <c r="E3" t="n">
-        <v>29.86111111111111</v>
+        <v>34.53055555555555</v>
       </c>
       <c r="F3" t="n">
-        <v>27.86111111111111</v>
+        <v>33.50039027804448</v>
       </c>
       <c r="G3" t="n">
-        <v>34.53055555555555</v>
+        <v>30.65509238155816</v>
       </c>
       <c r="H3" t="n">
-        <v>33.50039027804448</v>
+        <v>11.15451851851852</v>
       </c>
       <c r="I3" t="n">
-        <v>30.65509238155816</v>
+        <v>22.82847222222222</v>
       </c>
       <c r="J3" t="n">
-        <v>11.15451851851852</v>
-      </c>
-      <c r="K3" t="n">
-        <v>22.82847222222222</v>
-      </c>
-      <c r="L3" t="n">
         <v>1333.257527777778</v>
       </c>
     </row>
@@ -600,30 +578,24 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.083333333333333</v>
+        <v>31.05925925925926</v>
       </c>
       <c r="E4" t="n">
-        <v>31.05925925925926</v>
+        <v>28.63518518518519</v>
       </c>
       <c r="F4" t="n">
-        <v>28.97592592592592</v>
+        <v>28.01775799709868</v>
       </c>
       <c r="G4" t="n">
-        <v>28.63518518518519</v>
+        <v>26.43908548745019</v>
       </c>
       <c r="H4" t="n">
-        <v>28.01775799709868</v>
+        <v>8.949518518518518</v>
       </c>
       <c r="I4" t="n">
-        <v>26.43908548745019</v>
+        <v>21.58330555555555</v>
       </c>
       <c r="J4" t="n">
-        <v>8.949518518518518</v>
-      </c>
-      <c r="K4" t="n">
-        <v>21.58330555555555</v>
-      </c>
-      <c r="L4" t="n">
         <v>997.787962962963</v>
       </c>
     </row>
@@ -644,30 +616,24 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>30.32777777777778</v>
       </c>
       <c r="E5" t="n">
-        <v>30.32777777777778</v>
+        <v>28.21111111111111</v>
       </c>
       <c r="F5" t="n">
-        <v>28.32777777777778</v>
+        <v>27.56961605411228</v>
       </c>
       <c r="G5" t="n">
-        <v>28.21111111111111</v>
+        <v>26.21835560740693</v>
       </c>
       <c r="H5" t="n">
-        <v>27.56961605411228</v>
+        <v>9.138888888888889</v>
       </c>
       <c r="I5" t="n">
-        <v>26.21835560740693</v>
+        <v>25.96858333333333</v>
       </c>
       <c r="J5" t="n">
-        <v>9.138888888888889</v>
-      </c>
-      <c r="K5" t="n">
-        <v>25.96858333333333</v>
-      </c>
-      <c r="L5" t="n">
         <v>1027.413</v>
       </c>
     </row>
@@ -688,30 +654,24 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.027777777777778</v>
+        <v>27.12407407407407</v>
       </c>
       <c r="E6" t="n">
-        <v>27.12407407407407</v>
+        <v>48.13888888888889</v>
       </c>
       <c r="F6" t="n">
-        <v>25.0962962962963</v>
+        <v>47.5979897422625</v>
       </c>
       <c r="G6" t="n">
-        <v>48.13888888888889</v>
+        <v>46.00985087761003</v>
       </c>
       <c r="H6" t="n">
-        <v>47.5979897422625</v>
+        <v>15.48560185185185</v>
       </c>
       <c r="I6" t="n">
-        <v>46.00985087761003</v>
+        <v>28.99761111111111</v>
       </c>
       <c r="J6" t="n">
-        <v>15.48560185185185</v>
-      </c>
-      <c r="K6" t="n">
-        <v>28.99761111111111</v>
-      </c>
-      <c r="L6" t="n">
         <v>1893.350407407407</v>
       </c>
     </row>
@@ -732,30 +692,24 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.111111111111111</v>
+        <v>29.7962962962963</v>
       </c>
       <c r="E7" t="n">
-        <v>29.7962962962963</v>
+        <v>39.93148148148148</v>
       </c>
       <c r="F7" t="n">
-        <v>27.68518518518518</v>
+        <v>39.28297033724029</v>
       </c>
       <c r="G7" t="n">
-        <v>39.93148148148148</v>
+        <v>37.31769293505262</v>
       </c>
       <c r="H7" t="n">
-        <v>39.28297033724029</v>
+        <v>13.17141666666667</v>
       </c>
       <c r="I7" t="n">
-        <v>37.31769293505262</v>
+        <v>27.34026851851852</v>
       </c>
       <c r="J7" t="n">
-        <v>13.17141666666667</v>
-      </c>
-      <c r="K7" t="n">
-        <v>27.34026851851852</v>
-      </c>
-      <c r="L7" t="n">
         <v>1449.643944444445</v>
       </c>
     </row>
@@ -776,30 +730,24 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2.275925925925926</v>
+        <v>26.14074074074074</v>
       </c>
       <c r="E8" t="n">
-        <v>26.14074074074074</v>
+        <v>56.37777777777777</v>
       </c>
       <c r="F8" t="n">
-        <v>23.86481481481481</v>
+        <v>54.93006032437879</v>
       </c>
       <c r="G8" t="n">
-        <v>56.37777777777777</v>
+        <v>52.36060139935103</v>
       </c>
       <c r="H8" t="n">
-        <v>54.93006032437879</v>
+        <v>18.18872222222222</v>
       </c>
       <c r="I8" t="n">
-        <v>52.36060139935103</v>
+        <v>36.50593518518519</v>
       </c>
       <c r="J8" t="n">
-        <v>18.18872222222222</v>
-      </c>
-      <c r="K8" t="n">
-        <v>36.50593518518519</v>
-      </c>
-      <c r="L8" t="n">
         <v>2594.926185185185</v>
       </c>
     </row>
@@ -820,30 +768,24 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.022222222222222</v>
+        <v>21.98518518518519</v>
       </c>
       <c r="E9" t="n">
-        <v>21.98518518518519</v>
+        <v>117.4777777777778</v>
       </c>
       <c r="F9" t="n">
-        <v>19.96296296296296</v>
+        <v>112.8086049959966</v>
       </c>
       <c r="G9" t="n">
-        <v>117.4777777777778</v>
+        <v>105.427465034617</v>
       </c>
       <c r="H9" t="n">
-        <v>112.8086049959966</v>
+        <v>38.60941666666667</v>
       </c>
       <c r="I9" t="n">
-        <v>105.427465034617</v>
+        <v>36.4687037037037</v>
       </c>
       <c r="J9" t="n">
-        <v>38.60941666666667</v>
-      </c>
-      <c r="K9" t="n">
-        <v>36.4687037037037</v>
-      </c>
-      <c r="L9" t="n">
         <v>4943.562268518519</v>
       </c>
     </row>
@@ -864,30 +806,24 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2.133333333333333</v>
+        <v>27.48518518518519</v>
       </c>
       <c r="E10" t="n">
-        <v>27.48518518518519</v>
+        <v>61.98981481481481</v>
       </c>
       <c r="F10" t="n">
-        <v>25.35185185185185</v>
+        <v>60.10937438262843</v>
       </c>
       <c r="G10" t="n">
-        <v>61.98981481481481</v>
+        <v>56.27842004160235</v>
       </c>
       <c r="H10" t="n">
-        <v>60.10937438262843</v>
+        <v>19.92136111111111</v>
       </c>
       <c r="I10" t="n">
-        <v>56.27842004160235</v>
+        <v>64157.13657407407</v>
       </c>
       <c r="J10" t="n">
-        <v>19.92136111111111</v>
-      </c>
-      <c r="K10" t="n">
-        <v>64157.13657407407</v>
-      </c>
-      <c r="L10" t="n">
         <v>2778.354981481481</v>
       </c>
     </row>
@@ -908,30 +844,24 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>22.2</v>
       </c>
       <c r="E11" t="n">
-        <v>22.2</v>
+        <v>64.64351851851852</v>
       </c>
       <c r="F11" t="n">
-        <v>20.2</v>
+        <v>61.97004527825498</v>
       </c>
       <c r="G11" t="n">
-        <v>64.64351851851852</v>
+        <v>56.75381649175975</v>
       </c>
       <c r="H11" t="n">
-        <v>61.97004527825498</v>
+        <v>21.78942592592593</v>
       </c>
       <c r="I11" t="n">
-        <v>56.75381649175975</v>
+        <v>43.94193518518519</v>
       </c>
       <c r="J11" t="n">
-        <v>21.78942592592593</v>
-      </c>
-      <c r="K11" t="n">
-        <v>43.94193518518519</v>
-      </c>
-      <c r="L11" t="n">
         <v>3027.724981481481</v>
       </c>
     </row>
@@ -952,30 +882,24 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>22.45555555555556</v>
       </c>
       <c r="E12" t="n">
-        <v>22.45555555555556</v>
+        <v>98.49444444444445</v>
       </c>
       <c r="F12" t="n">
-        <v>20.45555555555556</v>
+        <v>95.90594235500727</v>
       </c>
       <c r="G12" t="n">
-        <v>98.49444444444445</v>
+        <v>88.05771688710379</v>
       </c>
       <c r="H12" t="n">
-        <v>95.90594235500727</v>
+        <v>32.59319444444444</v>
       </c>
       <c r="I12" t="n">
-        <v>88.05771688710379</v>
+        <v>37.39483333333333</v>
       </c>
       <c r="J12" t="n">
-        <v>32.59319444444444</v>
-      </c>
-      <c r="K12" t="n">
-        <v>37.39483333333333</v>
-      </c>
-      <c r="L12" t="n">
         <v>4507.069527777778</v>
       </c>
     </row>
@@ -996,30 +920,24 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>21.00555555555556</v>
       </c>
       <c r="E13" t="n">
-        <v>21.00555555555556</v>
+        <v>81.02222222222223</v>
       </c>
       <c r="F13" t="n">
-        <v>19.00555555555556</v>
+        <v>77.63670871132952</v>
       </c>
       <c r="G13" t="n">
-        <v>81.02222222222223</v>
+        <v>70.64263696790499</v>
       </c>
       <c r="H13" t="n">
-        <v>77.63670871132952</v>
+        <v>27.37212037037037</v>
       </c>
       <c r="I13" t="n">
-        <v>70.64263696790499</v>
+        <v>33.57533333333333</v>
       </c>
       <c r="J13" t="n">
-        <v>27.37212037037037</v>
-      </c>
-      <c r="K13" t="n">
-        <v>33.57533333333333</v>
-      </c>
-      <c r="L13" t="n">
         <v>3333.173175925926</v>
       </c>
     </row>
@@ -1040,30 +958,24 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2.027777777777778</v>
+        <v>24.94814814814815</v>
       </c>
       <c r="E14" t="n">
-        <v>24.94814814814815</v>
+        <v>45.74907407407407</v>
       </c>
       <c r="F14" t="n">
-        <v>22.92037037037037</v>
+        <v>44.64784828322626</v>
       </c>
       <c r="G14" t="n">
-        <v>45.74907407407407</v>
+        <v>41.78970869174149</v>
       </c>
       <c r="H14" t="n">
-        <v>44.64784828322626</v>
+        <v>15.26197222222222</v>
       </c>
       <c r="I14" t="n">
-        <v>41.78970869174149</v>
+        <v>32.95961111111112</v>
       </c>
       <c r="J14" t="n">
-        <v>15.26197222222222</v>
-      </c>
-      <c r="K14" t="n">
-        <v>32.95961111111112</v>
-      </c>
-      <c r="L14" t="n">
         <v>1888.386231481482</v>
       </c>
     </row>
@@ -1084,30 +996,24 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>19.0537037037037</v>
       </c>
       <c r="E15" t="n">
-        <v>19.0537037037037</v>
+        <v>55.625</v>
       </c>
       <c r="F15" t="n">
-        <v>17.0537037037037</v>
+        <v>53.32987548776947</v>
       </c>
       <c r="G15" t="n">
-        <v>55.625</v>
+        <v>51.00262275752265</v>
       </c>
       <c r="H15" t="n">
-        <v>53.32987548776947</v>
+        <v>17.01668518518519</v>
       </c>
       <c r="I15" t="n">
-        <v>51.00262275752265</v>
+        <v>35.06565740740741</v>
       </c>
       <c r="J15" t="n">
-        <v>17.01668518518519</v>
-      </c>
-      <c r="K15" t="n">
-        <v>35.06565740740741</v>
-      </c>
-      <c r="L15" t="n">
         <v>2454.770944444444</v>
       </c>
     </row>
@@ -1128,30 +1034,24 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2.027777777777778</v>
+        <v>26.84074074074074</v>
       </c>
       <c r="E16" t="n">
-        <v>26.84074074074074</v>
+        <v>79.49629629629629</v>
       </c>
       <c r="F16" t="n">
-        <v>24.81296296296296</v>
+        <v>77.61655255423028</v>
       </c>
       <c r="G16" t="n">
-        <v>79.49629629629629</v>
+        <v>72.53519741127919</v>
       </c>
       <c r="H16" t="n">
-        <v>77.61655255423028</v>
+        <v>24.88322222222222</v>
       </c>
       <c r="I16" t="n">
-        <v>72.53519741127919</v>
+        <v>-21108.04738888889</v>
       </c>
       <c r="J16" t="n">
-        <v>24.88322222222222</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-21108.04738888889</v>
-      </c>
-      <c r="L16" t="n">
         <v>2667.139759259259</v>
       </c>
     </row>
@@ -1172,30 +1072,24 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>29.85</v>
       </c>
       <c r="E17" t="n">
-        <v>29.85</v>
+        <v>30.39444444444445</v>
       </c>
       <c r="F17" t="n">
-        <v>27.85</v>
+        <v>30.06444122525313</v>
       </c>
       <c r="G17" t="n">
-        <v>30.39444444444445</v>
+        <v>29.01578443375113</v>
       </c>
       <c r="H17" t="n">
-        <v>30.06444122525313</v>
+        <v>9.393805555555556</v>
       </c>
       <c r="I17" t="n">
-        <v>29.01578443375113</v>
+        <v>23.37641666666667</v>
       </c>
       <c r="J17" t="n">
-        <v>9.393805555555556</v>
-      </c>
-      <c r="K17" t="n">
-        <v>23.37641666666667</v>
-      </c>
-      <c r="L17" t="n">
         <v>1024.541472222222</v>
       </c>
     </row>
@@ -1216,30 +1110,24 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2.044444444444444</v>
+        <v>24.17777777777778</v>
       </c>
       <c r="E18" t="n">
-        <v>24.17777777777778</v>
+        <v>51.55555555555556</v>
       </c>
       <c r="F18" t="n">
-        <v>22.13333333333333</v>
+        <v>50.68144406497754</v>
       </c>
       <c r="G18" t="n">
-        <v>51.55555555555556</v>
+        <v>48.73495420039715</v>
       </c>
       <c r="H18" t="n">
-        <v>50.68144406497754</v>
+        <v>17.47152777777778</v>
       </c>
       <c r="I18" t="n">
-        <v>48.73495420039715</v>
+        <v>35.34172222222222</v>
       </c>
       <c r="J18" t="n">
-        <v>17.47152777777778</v>
-      </c>
-      <c r="K18" t="n">
-        <v>35.34172222222222</v>
-      </c>
-      <c r="L18" t="n">
         <v>2360.077527777778</v>
       </c>
     </row>
@@ -1260,30 +1148,24 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>30.56666666666667</v>
       </c>
       <c r="E19" t="n">
-        <v>30.56666666666667</v>
+        <v>47.96851851851852</v>
       </c>
       <c r="F19" t="n">
-        <v>28.56666666666667</v>
+        <v>47.38208402161472</v>
       </c>
       <c r="G19" t="n">
-        <v>47.96851851851852</v>
+        <v>46.53815235874961</v>
       </c>
       <c r="H19" t="n">
-        <v>47.38208402161472</v>
+        <v>15.35978703703704</v>
       </c>
       <c r="I19" t="n">
-        <v>46.53815235874961</v>
+        <v>24.78565740740741</v>
       </c>
       <c r="J19" t="n">
-        <v>15.35978703703704</v>
-      </c>
-      <c r="K19" t="n">
-        <v>24.78565740740741</v>
-      </c>
-      <c r="L19" t="n">
         <v>1513.367222222222</v>
       </c>
     </row>

--- a/[2] Analyzer Results/RESULTS_MTT_MERGED_EXP.xlsx
+++ b/[2] Analyzer Results/RESULTS_MTT_MERGED_EXP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,11 +476,6 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
           <t>AUC</t>
         </is>
       </c>
@@ -517,10 +512,7 @@
         <v>6.727740740740741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.00411111111111</v>
-      </c>
-      <c r="J2" t="n">
-        <v>771.9230185185185</v>
+        <v>492.7533055555555</v>
       </c>
     </row>
     <row r="3">
@@ -555,10 +547,7 @@
         <v>11.15451851851852</v>
       </c>
       <c r="I3" t="n">
-        <v>22.82847222222222</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1333.257527777778</v>
+        <v>871.4074444444444</v>
       </c>
     </row>
     <row r="4">
@@ -593,10 +582,7 @@
         <v>8.949518518518518</v>
       </c>
       <c r="I4" t="n">
-        <v>21.58330555555555</v>
-      </c>
-      <c r="J4" t="n">
-        <v>997.787962962963</v>
+        <v>643.4059814814814</v>
       </c>
     </row>
     <row r="5">
@@ -631,10 +617,7 @@
         <v>9.138888888888889</v>
       </c>
       <c r="I5" t="n">
-        <v>25.96858333333333</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1027.413</v>
+        <v>650.7894166666667</v>
       </c>
     </row>
     <row r="6">
@@ -669,10 +652,7 @@
         <v>15.48560185185185</v>
       </c>
       <c r="I6" t="n">
-        <v>28.99761111111111</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1893.350407407407</v>
+        <v>1192.539342592593</v>
       </c>
     </row>
     <row r="7">
@@ -707,10 +687,7 @@
         <v>13.17141666666667</v>
       </c>
       <c r="I7" t="n">
-        <v>27.34026851851852</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1449.643944444445</v>
+        <v>927.4074629629629</v>
       </c>
     </row>
     <row r="8">
@@ -745,10 +722,7 @@
         <v>18.18872222222222</v>
       </c>
       <c r="I8" t="n">
-        <v>36.50593518518519</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2594.926185185185</v>
+        <v>1656.937814814815</v>
       </c>
     </row>
     <row r="9">
@@ -783,10 +757,7 @@
         <v>38.60941666666667</v>
       </c>
       <c r="I9" t="n">
-        <v>36.4687037037037</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4943.562268518519</v>
+        <v>3284.26</v>
       </c>
     </row>
     <row r="10">
@@ -821,10 +792,7 @@
         <v>19.92136111111111</v>
       </c>
       <c r="I10" t="n">
-        <v>64157.13657407407</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2778.354981481481</v>
+        <v>1802.728351851852</v>
       </c>
     </row>
     <row r="11">
@@ -859,10 +827,7 @@
         <v>21.78942592592593</v>
       </c>
       <c r="I11" t="n">
-        <v>43.94193518518519</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3027.724981481481</v>
+        <v>1933.50437962963</v>
       </c>
     </row>
     <row r="12">
@@ -897,10 +862,7 @@
         <v>32.59319444444444</v>
       </c>
       <c r="I12" t="n">
-        <v>37.39483333333333</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4507.069527777778</v>
+        <v>2852.824111111111</v>
       </c>
     </row>
     <row r="13">
@@ -935,10 +897,7 @@
         <v>27.37212037037037</v>
       </c>
       <c r="I13" t="n">
-        <v>33.57533333333333</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3333.173175925926</v>
+        <v>2239.483388888889</v>
       </c>
     </row>
     <row r="14">
@@ -973,10 +932,7 @@
         <v>15.26197222222222</v>
       </c>
       <c r="I14" t="n">
-        <v>32.95961111111112</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1888.386231481482</v>
+        <v>1205.942574074074</v>
       </c>
     </row>
     <row r="15">
@@ -1011,10 +967,7 @@
         <v>17.01668518518519</v>
       </c>
       <c r="I15" t="n">
-        <v>35.06565740740741</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2454.770944444444</v>
+        <v>1611.050768518518</v>
       </c>
     </row>
     <row r="16">
@@ -1049,10 +1002,7 @@
         <v>24.88322222222222</v>
       </c>
       <c r="I16" t="n">
-        <v>-21108.04738888889</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2667.139759259259</v>
+        <v>1798.43787962963</v>
       </c>
     </row>
     <row r="17">
@@ -1087,10 +1037,7 @@
         <v>9.393805555555556</v>
       </c>
       <c r="I17" t="n">
-        <v>23.37641666666667</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1024.541472222222</v>
+        <v>655.0816666666666</v>
       </c>
     </row>
     <row r="18">
@@ -1125,10 +1072,7 @@
         <v>17.47152777777778</v>
       </c>
       <c r="I18" t="n">
-        <v>35.34172222222222</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2360.077527777778</v>
+        <v>1480.245472222222</v>
       </c>
     </row>
     <row r="19">
@@ -1163,10 +1107,7 @@
         <v>15.35978703703704</v>
       </c>
       <c r="I19" t="n">
-        <v>24.78565740740741</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1513.367222222222</v>
+        <v>956.4841944444444</v>
       </c>
     </row>
   </sheetData>
